--- a/config_8.3/game_activity_config.xlsx
+++ b/config_8.3/game_activity_config.xlsx
@@ -778,10 +778,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>txz_type_plat</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>platform_limit_notcjj_show</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -835,6 +831,10 @@
   </si>
   <si>
     <t>登录有礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual_game_can_show</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1478,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomRight" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4317,7 +4317,7 @@
         <v>121</v>
       </c>
       <c r="M62" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N62" s="6">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="57" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I76" s="53">
         <v>1627344000</v>
@@ -4995,7 +4995,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E77" s="56" t="s">
         <v>196</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I77" s="53">
         <v>1627948800</v>
@@ -5042,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E78" s="56" t="s">
         <v>197</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78" s="53">
         <v>1627948800</v>
@@ -5089,7 +5089,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E79" s="56" t="s">
         <v>198</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I79" s="53">
         <v>1627948800</v>
@@ -5116,7 +5116,7 @@
         <v>190</v>
       </c>
       <c r="M79" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N79" s="53">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E80" s="56" t="s">
         <v>199</v>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I80" s="53">
         <v>1627948800</v>
@@ -5183,7 +5183,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E81" s="56" t="s">
         <v>201</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I81" s="53">
         <v>1627948800</v>
@@ -5230,10 +5230,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="56" t="s">
         <v>212</v>
-      </c>
-      <c r="E82" s="56" t="s">
-        <v>213</v>
       </c>
       <c r="F82" s="53">
         <v>3</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I82" s="53">
         <v>1627948800</v>
@@ -5254,10 +5254,10 @@
         <v>21</v>
       </c>
       <c r="L82" s="56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M82" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N82" s="53">
         <v>1</v>
@@ -5276,6 +5276,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -5283,69 +5314,38 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_8.3/game_activity_config.xlsx
+++ b/config_8.3/game_activity_config.xlsx
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Darien:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -423,6 +425,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -433,6 +436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -443,6 +447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -461,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -471,6 +477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,6 +488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,6 +499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -731,6 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","panel"</t>
@@ -834,7 +844,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>mutual_game_can_show</t>
+    <t>actp_mutual_game_can_show</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -854,18 +864,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -884,6 +897,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -891,34 +905,40 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1478,7 +1498,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4959,7 +4979,7 @@
       <c r="G76" s="53">
         <v>0</v>
       </c>
-      <c r="H76" s="57" t="s">
+      <c r="H76" s="58" t="s">
         <v>217</v>
       </c>
       <c r="I76" s="53">
@@ -5276,37 +5296,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -5314,38 +5313,59 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_8.3/game_activity_config.xlsx
+++ b/config_8.3/game_activity_config.xlsx
@@ -722,8 +722,108 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换模板（非冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动排行榜（非冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励模板（非冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除有礼（冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游互导（CPL）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务奖励模板（冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>txz_type_plat</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_notcjj_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_notcjj_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_cjj_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform_limit_cjj_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶兑换</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋日榜单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_dlyl_nor","panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>七夕福袋</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋礼包（冲金鸡）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_ldfd","panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_ldfd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>越消越开心</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_mutual_game_can_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"act_ty_task","act_task_</t>
+      <t>"act_ty_task","</t>
     </r>
     <r>
       <rPr>
@@ -733,118 +833,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>cjj</t>
+      <t>act_dlyl_cjj","panel"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","panel"</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具兑换模板（非冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动排行榜（非冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务奖励模板（非冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>消除有礼（冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>新游互导（CPL）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务奖励模板（冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>txz_type_plat</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_notcjj_show</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_notcjj_show</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_cjj_show</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform_limit_cjj_show</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录有礼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>枫叶兑换</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋日榜单</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_task","act_dlyl_nor","panel"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>七夕福袋</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋礼包（冲金鸡）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_ty_ldfd","panel"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_ldfd</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>越消越开心</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录有礼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_mutual_game_can_show</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1495,10 +1485,10 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4234,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I60" s="6">
         <v>1622505600</v>
@@ -4337,7 +4327,7 @@
         <v>121</v>
       </c>
       <c r="M62" s="61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N62" s="6">
         <v>1</v>
@@ -4719,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
@@ -4971,7 +4961,7 @@
         <v>181</v>
       </c>
       <c r="E76" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F76" s="53">
         <v>1</v>
@@ -4980,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="53">
         <v>1627344000</v>
@@ -5015,10 +5005,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F77" s="53">
         <v>2</v>
@@ -5027,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I77" s="53">
         <v>1627948800</v>
@@ -5048,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.15">
@@ -5062,10 +5052,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E78" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F78" s="53">
         <v>3</v>
@@ -5074,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I78" s="53">
         <v>1627948800</v>
@@ -5109,10 +5099,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79" s="53">
         <v>1</v>
@@ -5121,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I79" s="53">
         <v>1627948800</v>
@@ -5136,13 +5126,13 @@
         <v>190</v>
       </c>
       <c r="M79" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N79" s="53">
         <v>1</v>
       </c>
       <c r="O79" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.15">
@@ -5156,10 +5146,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F80" s="53">
         <v>1</v>
@@ -5168,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I80" s="53">
         <v>1627948800</v>
@@ -5203,10 +5193,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" s="53">
         <v>2</v>
@@ -5215,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I81" s="53">
         <v>1627948800</v>
@@ -5227,16 +5217,16 @@
         <v>21</v>
       </c>
       <c r="L81" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="M81" s="56" t="s">
         <v>192</v>
       </c>
+      <c r="M81" s="53" t="s">
+        <v>217</v>
+      </c>
       <c r="N81" s="53">
         <v>1</v>
       </c>
       <c r="O81" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.15">
@@ -5250,10 +5240,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="56" t="s">
         <v>211</v>
-      </c>
-      <c r="E82" s="56" t="s">
-        <v>212</v>
       </c>
       <c r="F82" s="53">
         <v>3</v>
@@ -5262,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I82" s="53">
         <v>1627948800</v>
@@ -5274,10 +5264,10 @@
         <v>21</v>
       </c>
       <c r="L82" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M82" s="56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N82" s="53">
         <v>1</v>
@@ -5296,16 +5286,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -5313,59 +5314,48 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>